--- a/F-2_配布資料/05_ファイル構成一覧表_F2.xlsx
+++ b/F-2_配布資料/05_ファイル構成一覧表_F2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo7\F-2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0DFE45-7CC8-4A7E-83C7-F75EF77EA61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48FB98E-D8DE-4EA9-83A4-CF802F572357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="2730" yWindow="1155" windowWidth="20490" windowHeight="9060" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="63">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -378,6 +378,60 @@
   </si>
   <si>
     <t>TaskAddServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AjaxServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態変化の非同期通信用</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウタイヘンカ</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>ヒドウキツウシン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <rPh sb="0" eb="3">
+      <t>ミカンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプルでもらったテスト用のサーブレット、開発には不必要</t>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>フヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UpdateDbApi</t>
+  </si>
+  <si>
+    <t>サンプルでもらったサーブレット、開発には不必要</t>
+    <rPh sb="16" eb="18">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>フヒツヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -402,7 +456,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,8 +469,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -443,9 +509,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -456,7 +533,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -472,7 +549,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -789,7 +878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H50"/>
+  <dimension ref="B2:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -842,13 +931,11 @@
       <c r="G3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="4">
-        <v>0.8</v>
-      </c>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B21" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B24" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -863,9 +950,10 @@
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
@@ -884,8 +972,11 @@
       <c r="F5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="5" t="s">
         <v>46</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
@@ -905,8 +996,11 @@
       <c r="F6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="5" t="s">
         <v>46</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
@@ -929,9 +1023,7 @@
       <c r="G7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="4">
-        <v>0.3</v>
-      </c>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
@@ -953,9 +1045,7 @@
       <c r="G8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="4">
-        <v>0.1</v>
-      </c>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -969,65 +1059,55 @@
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="1">
+      <c r="B10" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
+      <c r="D10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="1">
+      <c r="B11" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.8</v>
-      </c>
+      <c r="D11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
@@ -1038,20 +1118,18 @@
         <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
@@ -1065,14 +1143,15 @@
         <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
@@ -1080,23 +1159,21 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
@@ -1104,23 +1181,21 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0.5</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
@@ -1128,22 +1203,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
@@ -1155,20 +1227,18 @@
         <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
@@ -1176,20 +1246,21 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
@@ -1197,23 +1268,21 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
@@ -1221,23 +1290,21 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="4">
-        <v>1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
@@ -1245,24 +1312,24 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
-        <f t="shared" ref="B22:B50" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1272,21 +1339,19 @@
         <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1296,50 +1361,79 @@
         <v>32</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H23">
-        <v>1005</v>
-      </c>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B25:B53" si="1">ROW()-2</f>
         <v>23</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
@@ -1604,6 +1698,39 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B51" s="1">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B52" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B53" s="1">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
